--- a/Design/UI/CollaboRhythm.Tablet/Blood Pressure Medication Titration Decision Support Text.xlsx
+++ b/Design/UI/CollaboRhythm.Tablet/Blood Pressure Medication Titration Decision Support Text.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="32">
   <si>
     <t>Patient text</t>
   </si>
@@ -39,42 +39,6 @@
     <t>Your average systolic blood pressure could not be plotted because you do not have 3 daily blood pressure measurements in the past week, including one today.</t>
   </si>
   <si>
-    <t>It has been 14 days since your last medication change, your medication adherence has been perfect, and your average systolic blood pressure is greater than or equal to 140. An increase in medication can be considered according to the protocol. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has been 14 days since your last medication change, your medication adherence has been perfect, and your average systolic blood pressure is less than 140. A decrease in medication can be considered according to the protocol. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has been 14 days since your last medication change, your medication adherence has been perfect, but you do not have an average systolic blood pressure. The protocol cannot recommend a change in medication. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has been 14 days since your last medication change, but your medication adherence has not been perfect. The protocol cannot recommend a change in medication. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has been 14 days since your the medication change, the medication adherence has been perfect, and the average systolic blood pressure is greater than or equal to 140. An increase in medication can be considered according to the protocol. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has been 14 days since the last medication change, the medication adherence has been perfect, and the average systolic blood pressure is less than 140. A decrease in medication can be considered according to the protocol. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has been 14 days since the last medication change, the medication adherence has been perfect, but there is not an average systolic blood pressure. The protocol cannot recommend a change in medication. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has been 14 days since the last medication change, but the medication adherence has not been perfect. The protocol cannot recommend a change in medication. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has not been 14 days since the last medication change, so the protocol does not recommend a change in medication. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has not been 14 days since the last medication change, so the protocol does not recommend a change in medication. The medication adherence has also not been perfect. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has not been 14 days since your last medication change, so the protocol does not recommend a change in medication. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
-    <t>It has not been 14 days since your last medication change, so the protocol does not recommend a change in medication. Your medication adherence has also not been perfect. Remember that the protocol is just a guide.</t>
-  </si>
-  <si>
     <t>Step 1 text</t>
   </si>
   <si>
@@ -127,6 +91,27 @@
   </si>
   <si>
     <t>measurementGoalNotMet (avg SBP &gt;= 140)</t>
+  </si>
+  <si>
+    <t>same as patient text</t>
+  </si>
+  <si>
+    <t>An increase on the MAP can be considered because:\nLast medication change &gt;= 14 days\nAverage systolic blood pressure &gt;= 130\n Medication adherence is perfect</t>
+  </si>
+  <si>
+    <t>A change on the MAP is not recommended because: \nLast medication change &lt; 14 days</t>
+  </si>
+  <si>
+    <t>A change on the MAP is not recommended because:\nLast medication change &lt; 14 days\nMedication adherence is not perfect</t>
+  </si>
+  <si>
+    <t>An decrease on the MAP can be considered because:\nLast medication change &gt;= 14 days\nAverage systolic blood pressure &lt; 130\n Medication adherence is perfect</t>
+  </si>
+  <si>
+    <t>A change on the MAP is not recommended because:\nMedication adherence is not perfect</t>
+  </si>
+  <si>
+    <t>A change on the MAP is not recommended because:\nAverage systolic blood pressure not available</t>
   </si>
 </sst>
 </file>
@@ -485,7 +470,7 @@
   <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -509,21 +494,21 @@
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1">
       <c r="D2" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" customHeight="1">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -532,13 +517,13 @@
     </row>
     <row r="4" spans="1:9" ht="15" customHeight="1">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -555,10 +540,10 @@
     </row>
     <row r="6" spans="1:9" ht="15" customHeight="1">
       <c r="D6" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -567,16 +552,16 @@
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
@@ -585,13 +570,13 @@
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1">
       <c r="B8" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
@@ -600,60 +585,60 @@
     </row>
     <row r="9" spans="1:9" ht="15" customHeight="1">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="15" customHeight="1">
       <c r="C10" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15" customHeight="1">
       <c r="C11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
+        <v>22</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>31</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15" customHeight="1">
       <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="D14" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -661,7 +646,7 @@
         <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26.25">
@@ -671,21 +656,21 @@
     </row>
     <row r="19" spans="1:9" ht="14.1" customHeight="1">
       <c r="D19" s="4" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="14.1" customHeight="1">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -694,13 +679,13 @@
     </row>
     <row r="21" spans="1:9" ht="14.1" customHeight="1">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -717,10 +702,10 @@
     </row>
     <row r="23" spans="1:9" ht="14.1" customHeight="1">
       <c r="D23" s="4" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -728,94 +713,41 @@
       <c r="I23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A24" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>26</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="14.1" customHeight="1">
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
     <row r="26" spans="1:9" ht="14.1" customHeight="1">
-      <c r="A26" t="s">
-        <v>32</v>
-      </c>
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="1:9" ht="14.1" customHeight="1">
-      <c r="C27" t="s">
-        <v>35</v>
-      </c>
-      <c r="D27" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:9" ht="14.1" customHeight="1">
-      <c r="C28" t="s">
-        <v>34</v>
-      </c>
-      <c r="D28" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="1:9" ht="14.1" customHeight="1">
-      <c r="B29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="31" spans="1:9">
       <c r="D31" s="4" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -823,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
